--- a/maps/map_maker.xlsx
+++ b/maps/map_maker.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alan/Documents/1-UofU/CS6370_MotionPlanning/FinalProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alan/Documents/1-UofU/CS6370_MotionPlanning/FinalProject/G5-MotionPlanning/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D346C8B-F39B-2247-813C-7E486007182C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2AF1DF-3A42-7C4C-9B36-CEF912F84B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{5DDFE309-7309-1F4E-8C63-19C1E1FB5751}"/>
   </bookViews>
   <sheets>
-    <sheet name="base" sheetId="5" r:id="rId1"/>
-    <sheet name="gauntlet" sheetId="4" r:id="rId2"/>
-    <sheet name="vdberg3c" sheetId="1" r:id="rId3"/>
+    <sheet name="notsure" sheetId="6" r:id="rId1"/>
+    <sheet name="base" sheetId="5" r:id="rId2"/>
+    <sheet name="gauntlet" sheetId="4" r:id="rId3"/>
+    <sheet name="vdberg3c" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="8">
   <si>
     <t>g</t>
   </si>
@@ -60,13 +61,16 @@
   <si>
     <t>0</t>
   </si>
+  <si>
+    <t>1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="00"/>
+    <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -186,10 +190,10 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -202,7 +206,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -221,7 +225,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
     <dxf>
       <font>
         <strike val="0"/>
@@ -229,6 +233,30 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -287,6 +315,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -679,10 +717,2497 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FFD166-8AD1-5B4A-A971-BDF4AC93F405}">
+  <dimension ref="A2:AQ26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="3" customWidth="1"/>
+    <col min="32" max="32" width="2.83203125" customWidth="1"/>
+    <col min="33" max="33" width="3" customWidth="1"/>
+    <col min="35" max="35" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>17</v>
+      </c>
+      <c r="T2">
+        <v>18</v>
+      </c>
+      <c r="U2">
+        <v>19</v>
+      </c>
+      <c r="V2">
+        <v>20</v>
+      </c>
+      <c r="W2">
+        <v>21</v>
+      </c>
+      <c r="X2">
+        <v>22</v>
+      </c>
+      <c r="Y2">
+        <v>23</v>
+      </c>
+      <c r="Z2">
+        <v>24</v>
+      </c>
+      <c r="AA2">
+        <v>25</v>
+      </c>
+      <c r="AB2">
+        <v>26</v>
+      </c>
+      <c r="AC2">
+        <v>27</v>
+      </c>
+      <c r="AD2">
+        <v>28</v>
+      </c>
+      <c r="AE2">
+        <v>29</v>
+      </c>
+      <c r="AF2">
+        <v>30</v>
+      </c>
+      <c r="AG2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5">
+        <v>1</v>
+      </c>
+      <c r="S3" s="5">
+        <v>1</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1</v>
+      </c>
+      <c r="U3" s="5">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5">
+        <v>1</v>
+      </c>
+      <c r="W3" s="5">
+        <v>1</v>
+      </c>
+      <c r="X3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="1" t="str">
+        <f>_xlfn.CONCAT(B3:AG3, CHAR(10))</f>
+        <v xml:space="preserve">11111111111111111111111111111111
+</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f>_xlfn.CONCAT("GOAL_SET", CHAR(10), AO4:AO22, "MAP", CHAR(10),  AI3:AI23)</f>
+        <v xml:space="preserve">GOAL_SET
+[ 1, 3 ]: [ 5, 3]
+[ 3, 1 ]: [ 3, 5]
+MAP
+11111111111111111111111111111111
+111i1110000000000000000000000001
+11101110000000000000000000000001
+1i000g10000000000000000000000001
+11101110000000000000000000000001
+111g1110000000000000000000000001
+11111110000000000000000000000001
+</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="1" t="str">
+        <f t="shared" ref="AI4:AI24" si="0">_xlfn.CONCAT(B4:AG4, CHAR(10))</f>
+        <v xml:space="preserve">111i1110000000000000000000000001
+</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO4" t="str">
+        <f>_xlfn.CONCAT("[ ",AK4,", ",AL4," ]: [ ",AM4,", ",AN4,"]",CHAR(10))</f>
+        <v xml:space="preserve">[ 1, 3 ]: [ 5, 3]
+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">11101110000000000000000000000001
+</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="str">
+        <f t="shared" ref="AO5:AO22" si="1">_xlfn.CONCAT("[ ",AK5,", ",AL5," ]: [ ",AM5,", ",AN5,"]",CHAR(10))</f>
+        <v xml:space="preserve">[ 3, 1 ]: [ 3, 5]
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1i000g10000000000000000000000001
+</v>
+      </c>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+    </row>
+    <row r="7" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">11101110000000000000000000000001
+</v>
+      </c>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+    </row>
+    <row r="8" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">111g1110000000000000000000000001
+</v>
+      </c>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+    </row>
+    <row r="9" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">11111110000000000000000000000001
+</v>
+      </c>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+    </row>
+    <row r="10" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+    </row>
+    <row r="11" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+    </row>
+    <row r="12" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+    </row>
+    <row r="13" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+    </row>
+    <row r="14" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+    </row>
+    <row r="15" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+    </row>
+    <row r="16" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+    </row>
+    <row r="17" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+    </row>
+    <row r="18" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG18" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+    </row>
+    <row r="19" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG19" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+    </row>
+    <row r="20" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG20" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+    </row>
+    <row r="21" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+    </row>
+    <row r="22" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+    </row>
+    <row r="23" spans="1:40" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11">
+        <v>1</v>
+      </c>
+      <c r="M23" s="11">
+        <v>1</v>
+      </c>
+      <c r="N23" s="11">
+        <v>1</v>
+      </c>
+      <c r="O23" s="11">
+        <v>1</v>
+      </c>
+      <c r="P23" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>1</v>
+      </c>
+      <c r="R23" s="11">
+        <v>1</v>
+      </c>
+      <c r="S23" s="11">
+        <v>1</v>
+      </c>
+      <c r="T23" s="11">
+        <v>1</v>
+      </c>
+      <c r="U23" s="11">
+        <v>1</v>
+      </c>
+      <c r="V23" s="11">
+        <v>1</v>
+      </c>
+      <c r="W23" s="11">
+        <v>1</v>
+      </c>
+      <c r="X23" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="1"/>
+    </row>
+    <row r="24" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="AI24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="AI25" s="1" t="str">
+        <f>_xlfn.CONCAT("There are: ", COUNTIF(B3:AG23, "*i*")," starts")</f>
+        <v>There are: 2 starts</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="AI26" s="1" t="str">
+        <f>_xlfn.CONCAT("There are: ", COUNTIF(B3:AG23, "*g*")," goals")</f>
+        <v>There are: 2 goals</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:AG23">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"g"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"i"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B015F5C9-85D6-084C-A5E6-BE12D38231DC}">
   <dimension ref="A2:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
@@ -3338,16 +5863,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:AG23">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>"g"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
       <formula>"i"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3359,7 +5884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE81CAB4-5FD2-ED45-9FFC-4D1F5AA1F27D}">
   <dimension ref="A2:AQ26"/>
   <sheetViews>
@@ -6171,16 +8696,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:AG23">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>"g"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
       <formula>"i"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6188,7 +8713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD07CB5-52A1-BE48-A1EE-52BF230B6326}">
   <dimension ref="B3:AI24"/>
   <sheetViews>
@@ -8449,13 +10974,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AH25">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"g"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"i"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/maps/map_maker.xlsx
+++ b/maps/map_maker.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alan/Documents/1-UofU/CS6370_MotionPlanning/FinalProject/G5-MotionPlanning/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2AF1DF-3A42-7C4C-9B36-CEF912F84B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A448E5-E6D9-5B46-89F4-F38C9C954DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{5DDFE309-7309-1F4E-8C63-19C1E1FB5751}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="4" xr2:uid="{5DDFE309-7309-1F4E-8C63-19C1E1FB5751}"/>
   </bookViews>
   <sheets>
-    <sheet name="notsure" sheetId="6" r:id="rId1"/>
-    <sheet name="base" sheetId="5" r:id="rId2"/>
-    <sheet name="gauntlet" sheetId="4" r:id="rId3"/>
-    <sheet name="vdberg3c" sheetId="1" r:id="rId4"/>
+    <sheet name="wahwah" sheetId="7" r:id="rId1"/>
+    <sheet name="notsure" sheetId="6" r:id="rId2"/>
+    <sheet name="base" sheetId="5" r:id="rId3"/>
+    <sheet name="gauntlet" sheetId="4" r:id="rId4"/>
+    <sheet name="vdberg3c" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="8">
   <si>
     <t>g</t>
   </si>
@@ -225,7 +226,41 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -717,10 +752,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FFD166-8AD1-5B4A-A971-BDF4AC93F405}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9AEBF1-76F5-A84C-9703-E6AE3858E9BC}">
   <dimension ref="A2:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
@@ -960,15 +995,15 @@
       <c r="AQ3" t="str">
         <f>_xlfn.CONCAT("GOAL_SET", CHAR(10), AO4:AO22, "MAP", CHAR(10),  AI3:AI23)</f>
         <v xml:space="preserve">GOAL_SET
-[ 1, 3 ]: [ 5, 3]
-[ 3, 1 ]: [ 3, 5]
+[ 1, 3 ]: [ 3, 3]
+[ 5, 3 ]: [ 2, 3]
 MAP
 11111111111111111111111111111111
-111i1110000000000000000000000001
+11111110000000000000000000000001
 11101110000000000000000000000001
-1i000g10000000000000000000000001
+1igg0i10000000000000000000000001
 11101110000000000000000000000001
-111g1110000000000000000000000001
+11111110000000000000000000000001
 11111110000000000000000000000001
 </v>
       </c>
@@ -987,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>7</v>
@@ -1075,7 +1110,7 @@
       </c>
       <c r="AI4" s="1" t="str">
         <f t="shared" ref="AI4:AI24" si="0">_xlfn.CONCAT(B4:AG4, CHAR(10))</f>
-        <v xml:space="preserve">111i1110000000000000000000000001
+        <v xml:space="preserve">11111110000000000000000000000001
 </v>
       </c>
       <c r="AJ4" s="2">
@@ -1088,14 +1123,14 @@
         <v>3</v>
       </c>
       <c r="AM4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN4" s="3">
         <v>3</v>
       </c>
       <c r="AO4" t="str">
         <f>_xlfn.CONCAT("[ ",AK4,", ",AL4," ]: [ ",AM4,", ",AN4,"]",CHAR(10))</f>
-        <v xml:space="preserve">[ 1, 3 ]: [ 5, 3]
+        <v xml:space="preserve">[ 1, 3 ]: [ 3, 3]
 </v>
       </c>
     </row>
@@ -1208,20 +1243,20 @@
         <v>2</v>
       </c>
       <c r="AK5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="3">
         <v>3</v>
       </c>
-      <c r="AL5" s="3">
-        <v>1</v>
-      </c>
       <c r="AM5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="3">
         <v>3</v>
-      </c>
-      <c r="AN5" s="3">
-        <v>5</v>
       </c>
       <c r="AO5" t="str">
         <f t="shared" ref="AO5:AO22" si="1">_xlfn.CONCAT("[ ",AK5,", ",AL5," ]: [ ",AM5,", ",AN5,"]",CHAR(10))</f>
-        <v xml:space="preserve">[ 3, 1 ]: [ 3, 5]
+        <v xml:space="preserve">[ 5, 3 ]: [ 2, 3]
 </v>
       </c>
     </row>
@@ -1236,16 +1271,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>7</v>
@@ -1327,7 +1362,7 @@
       </c>
       <c r="AI6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">1i000g10000000000000000000000001
+        <v xml:space="preserve">1igg0i10000000000000000000000001
 </v>
       </c>
       <c r="AJ6" s="2"/>
@@ -1461,7 +1496,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>7</v>
@@ -1549,7 +1584,7 @@
       </c>
       <c r="AI8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">111g1110000000000000000000000001
+        <v xml:space="preserve">11111110000000000000000000000001
 </v>
       </c>
       <c r="AJ8" s="2"/>
@@ -3166,11 +3201,7 @@
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="AI24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:40" ht="17" x14ac:dyDescent="0.25">
       <c r="AI25" s="1" t="str">
@@ -3204,6 +3235,2493 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FFD166-8AD1-5B4A-A971-BDF4AC93F405}">
+  <dimension ref="A2:AQ26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="3" customWidth="1"/>
+    <col min="32" max="32" width="2.83203125" customWidth="1"/>
+    <col min="33" max="33" width="3" customWidth="1"/>
+    <col min="35" max="35" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>17</v>
+      </c>
+      <c r="T2">
+        <v>18</v>
+      </c>
+      <c r="U2">
+        <v>19</v>
+      </c>
+      <c r="V2">
+        <v>20</v>
+      </c>
+      <c r="W2">
+        <v>21</v>
+      </c>
+      <c r="X2">
+        <v>22</v>
+      </c>
+      <c r="Y2">
+        <v>23</v>
+      </c>
+      <c r="Z2">
+        <v>24</v>
+      </c>
+      <c r="AA2">
+        <v>25</v>
+      </c>
+      <c r="AB2">
+        <v>26</v>
+      </c>
+      <c r="AC2">
+        <v>27</v>
+      </c>
+      <c r="AD2">
+        <v>28</v>
+      </c>
+      <c r="AE2">
+        <v>29</v>
+      </c>
+      <c r="AF2">
+        <v>30</v>
+      </c>
+      <c r="AG2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5">
+        <v>1</v>
+      </c>
+      <c r="S3" s="5">
+        <v>1</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1</v>
+      </c>
+      <c r="U3" s="5">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5">
+        <v>1</v>
+      </c>
+      <c r="W3" s="5">
+        <v>1</v>
+      </c>
+      <c r="X3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="1" t="str">
+        <f>_xlfn.CONCAT(B3:AG3, CHAR(10))</f>
+        <v xml:space="preserve">11111111111111111111111111111111
+</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f>_xlfn.CONCAT("GOAL_SET", CHAR(10), AO4:AO22, "MAP", CHAR(10),  AI3:AI23)</f>
+        <v xml:space="preserve">GOAL_SET
+[ 1, 3 ]: [ 5, 3]
+[ 3, 1 ]: [ 3, 5]
+MAP
+11111111111111111111111111111111
+111i1110000000000000000000000001
+11101110000000000000000000000001
+1i000g10000000000000000000000001
+11101110000000000000000000000001
+111g1110000000000000000000000001
+11111110000000000000000000000001
+</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="1" t="str">
+        <f t="shared" ref="AI4:AI24" si="0">_xlfn.CONCAT(B4:AG4, CHAR(10))</f>
+        <v xml:space="preserve">111i1110000000000000000000000001
+</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO4" t="str">
+        <f>_xlfn.CONCAT("[ ",AK4,", ",AL4," ]: [ ",AM4,", ",AN4,"]",CHAR(10))</f>
+        <v xml:space="preserve">[ 1, 3 ]: [ 5, 3]
+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">11101110000000000000000000000001
+</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="str">
+        <f t="shared" ref="AO5:AO22" si="1">_xlfn.CONCAT("[ ",AK5,", ",AL5," ]: [ ",AM5,", ",AN5,"]",CHAR(10))</f>
+        <v xml:space="preserve">[ 3, 1 ]: [ 3, 5]
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1i000g10000000000000000000000001
+</v>
+      </c>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+    </row>
+    <row r="7" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">11101110000000000000000000000001
+</v>
+      </c>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+    </row>
+    <row r="8" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">111g1110000000000000000000000001
+</v>
+      </c>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+    </row>
+    <row r="9" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">11111110000000000000000000000001
+</v>
+      </c>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+    </row>
+    <row r="10" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+    </row>
+    <row r="11" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+    </row>
+    <row r="12" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+    </row>
+    <row r="13" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+    </row>
+    <row r="14" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+    </row>
+    <row r="15" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+    </row>
+    <row r="16" spans="1:43" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+    </row>
+    <row r="17" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+    </row>
+    <row r="18" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG18" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+    </row>
+    <row r="19" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG19" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+    </row>
+    <row r="20" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG20" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+    </row>
+    <row r="21" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+    </row>
+    <row r="22" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+    </row>
+    <row r="23" spans="1:40" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11">
+        <v>1</v>
+      </c>
+      <c r="M23" s="11">
+        <v>1</v>
+      </c>
+      <c r="N23" s="11">
+        <v>1</v>
+      </c>
+      <c r="O23" s="11">
+        <v>1</v>
+      </c>
+      <c r="P23" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>1</v>
+      </c>
+      <c r="R23" s="11">
+        <v>1</v>
+      </c>
+      <c r="S23" s="11">
+        <v>1</v>
+      </c>
+      <c r="T23" s="11">
+        <v>1</v>
+      </c>
+      <c r="U23" s="11">
+        <v>1</v>
+      </c>
+      <c r="V23" s="11">
+        <v>1</v>
+      </c>
+      <c r="W23" s="11">
+        <v>1</v>
+      </c>
+      <c r="X23" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="1"/>
+    </row>
+    <row r="24" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="AI24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="AI25" s="1" t="str">
+        <f>_xlfn.CONCAT("There are: ", COUNTIF(B3:AG23, "*i*")," starts")</f>
+        <v>There are: 2 starts</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" ht="17" x14ac:dyDescent="0.25">
+      <c r="AI26" s="1" t="str">
+        <f>_xlfn.CONCAT("There are: ", COUNTIF(B3:AG23, "*g*")," goals")</f>
+        <v>There are: 2 goals</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:AG23">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"g"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"i"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B015F5C9-85D6-084C-A5E6-BE12D38231DC}">
   <dimension ref="A2:AQ26"/>
   <sheetViews>
@@ -5863,16 +8381,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:AG23">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>"g"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="equal">
       <formula>"i"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5884,7 +8402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE81CAB4-5FD2-ED45-9FFC-4D1F5AA1F27D}">
   <dimension ref="A2:AQ26"/>
   <sheetViews>
@@ -8696,16 +11214,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:AG23">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>"g"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
       <formula>"i"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8713,11 +11231,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD07CB5-52A1-BE48-A1EE-52BF230B6326}">
   <dimension ref="B3:AI24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AI3" sqref="AI3:AI24"/>
     </sheetView>
   </sheetViews>
@@ -10974,13 +13492,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AH25">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"g"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"i"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
